--- a/data/trans_dic/P33B_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R2-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1333798843312164</v>
+        <v>0.1329960483906589</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2116635453606554</v>
+        <v>0.2119426085513761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1811013957364804</v>
+        <v>0.1804579770033423</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1929544559023534</v>
+        <v>0.1914640298801554</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2594456512415808</v>
+        <v>0.2627300464601008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2193151143850432</v>
+        <v>0.2173001357954333</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1122903544088884</v>
+        <v>0.112939791651769</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2012326256544206</v>
+        <v>0.2010683485750678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1631093381835135</v>
+        <v>0.1609336944320509</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1545502073774258</v>
+        <v>0.1558051922022501</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2445828120659852</v>
+        <v>0.2443662829999133</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1951340499895056</v>
+        <v>0.1914372088480995</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.2011095811571121</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1587758715692937</v>
+        <v>0.1587758715692936</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09213074195727217</v>
+        <v>0.09647547696485345</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1769783263837122</v>
+        <v>0.1783396798488446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1427227079831314</v>
+        <v>0.140775038219804</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1410409154630824</v>
+        <v>0.1425056830467828</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2271353215268259</v>
+        <v>0.2274881473060315</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1768974306566607</v>
+        <v>0.1766605535798931</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.2388929915273674</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1980129685553318</v>
+        <v>0.1980129685553317</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1320254872287442</v>
+        <v>0.1328573099828979</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2173546530781669</v>
+        <v>0.219568475653589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1822461664485527</v>
+        <v>0.1841445024781208</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1757275404952701</v>
+        <v>0.1749107491118679</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2613948680610175</v>
+        <v>0.2614444800555014</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2122870989523386</v>
+        <v>0.2142628220717502</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1395145783794931</v>
+        <v>0.1395145783794932</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.2250572738734859</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1264628204025781</v>
+        <v>0.1276458299625879</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2125207898458497</v>
+        <v>0.2136995181431914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1752599188339788</v>
+        <v>0.1749398094854767</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1507044689306758</v>
+        <v>0.1520134799894528</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2373134403303522</v>
+        <v>0.2375936722889594</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1919989841505105</v>
+        <v>0.1921440330845332</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>91983</v>
+        <v>91718</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>154976</v>
+        <v>155181</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>257492</v>
+        <v>256577</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>133067</v>
+        <v>132039</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>189962</v>
+        <v>192366</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>311825</v>
+        <v>308960</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>117783</v>
+        <v>118464</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>215488</v>
+        <v>215312</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>345752</v>
+        <v>341140</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>162110</v>
+        <v>163427</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>261909</v>
+        <v>261677</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>413636</v>
+        <v>405800</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>73988</v>
+        <v>77477</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>143752</v>
+        <v>144858</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>230545</v>
+        <v>227398</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>113266</v>
+        <v>114442</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>184493</v>
+        <v>184779</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>285748</v>
+        <v>285365</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>130713</v>
+        <v>131537</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>243072</v>
+        <v>245548</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>384244</v>
+        <v>388247</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>173981</v>
+        <v>173172</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>292323</v>
+        <v>292378</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>447582</v>
+        <v>451748</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>446626</v>
+        <v>450804</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>793467</v>
+        <v>797868</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1273312</v>
+        <v>1270987</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>532240</v>
+        <v>536863</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>886033</v>
+        <v>887079</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1394926</v>
+        <v>1395980</v>
       </c>
     </row>
     <row r="24">
